--- a/data/trans_orig/P36B11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE27FDD9-D390-4146-9580-029C9C48778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C9A9686-92A0-46EE-9B7A-5A163F469156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F11A0C5-04B3-4BF8-B719-BD66EEBD4793}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8AA5651-8FCB-4E2A-B366-FB40B9F05DD4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="495">
-  <si>
-    <t>Población según la frecuencia de consumición de pescado en 2007 (Tasa respuesta: 99,95%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="481">
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,1429 +76,1399 @@
     <t>1,55%</t>
   </si>
   <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2015 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de pescado en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de pescado en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>60,75%</t>
   </si>
   <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
   </si>
   <si>
     <t>59,92%</t>
   </si>
   <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
   </si>
   <si>
     <t>60,32%</t>
   </si>
   <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>28,43%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
   </si>
   <si>
     <t>27,46%</t>
   </si>
   <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -1508,18 +1478,6 @@
   </si>
   <si>
     <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
   </si>
   <si>
     <t>1,81%</t>
@@ -1934,7 +1892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C4C523-034B-4506-A044-17E0B6663975}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5563BB-171F-46A0-A510-DAF42F3EBA6F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2280,10 +2238,10 @@
         <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>72</v>
@@ -2292,13 +2250,13 @@
         <v>69559</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2271,13 @@
         <v>1030855</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2328,13 +2286,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2328</v>
@@ -2343,18 +2301,18 @@
         <v>2345968</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2366,13 +2324,13 @@
         <v>29764</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -2381,13 +2339,13 @@
         <v>33509</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -2396,13 +2354,13 @@
         <v>63273</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,13 +2375,13 @@
         <v>145362</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>125</v>
@@ -2432,7 +2390,7 @@
         <v>129678</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>74</v>
@@ -2555,7 +2513,7 @@
         <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2528,13 @@
         <v>31471</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -2585,13 +2543,13 @@
         <v>40168</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -2600,13 +2558,13 @@
         <v>71639</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2579,13 @@
         <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1552</v>
@@ -2636,13 +2594,13 @@
         <v>1585619</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3201</v>
@@ -2651,18 +2609,18 @@
         <v>3279032</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2674,13 +2632,13 @@
         <v>6218</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -2689,13 +2647,13 @@
         <v>11517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2704,13 +2662,13 @@
         <v>17735</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2683,13 @@
         <v>57873</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -2740,13 +2698,13 @@
         <v>34395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -2755,13 +2713,13 @@
         <v>92268</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2734,13 @@
         <v>268899</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>268</v>
@@ -2791,13 +2749,13 @@
         <v>278873</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>526</v>
@@ -2806,13 +2764,13 @@
         <v>547772</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2785,13 @@
         <v>207334</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>135</v>
@@ -2842,13 +2800,13 @@
         <v>144468</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>328</v>
@@ -2857,13 +2815,13 @@
         <v>351801</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2836,13 @@
         <v>11084</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2893,13 +2851,13 @@
         <v>7159</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -2908,13 +2866,13 @@
         <v>18243</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2887,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -2944,13 +2902,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -2959,13 +2917,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2940,13 @@
         <v>51911</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -2997,13 +2955,13 @@
         <v>60318</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -3012,13 +2970,13 @@
         <v>112229</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +2991,13 @@
         <v>286178</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>239</v>
@@ -3048,13 +3006,13 @@
         <v>245620</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>525</v>
@@ -3063,13 +3021,13 @@
         <v>531798</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3042,13 @@
         <v>1627987</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>1789</v>
@@ -3099,28 +3057,28 @@
         <v>1831585</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>3379</v>
       </c>
       <c r="N24" s="7">
-        <v>3459572</v>
+        <v>3459571</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3093,13 @@
         <v>1233830</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>1127</v>
@@ -3150,28 +3108,28 @@
         <v>1155948</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>2338</v>
       </c>
       <c r="N25" s="7">
-        <v>2389779</v>
+        <v>2389778</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3144,13 @@
         <v>75769</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>82</v>
@@ -3201,13 +3159,13 @@
         <v>83673</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>157</v>
@@ -3216,13 +3174,13 @@
         <v>159442</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3195,13 @@
         <v>3275675</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3295</v>
@@ -3252,33 +3210,33 @@
         <v>3377144</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6508</v>
       </c>
       <c r="N27" s="7">
-        <v>6652819</v>
+        <v>6652818</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +3255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC8A715-7CE2-4C13-893D-E5C8D24B0F63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAA9630-3EBC-420D-8582-E191BCF22A23}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3314,7 +3272,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3421,13 +3379,13 @@
         <v>11952</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3436,13 +3394,13 @@
         <v>13484</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -3451,13 +3409,13 @@
         <v>25435</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3430,13 @@
         <v>107502</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -3487,28 +3445,28 @@
         <v>101628</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
         <v>192</v>
       </c>
       <c r="N5" s="7">
-        <v>209130</v>
+        <v>209131</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3481,13 @@
         <v>524123</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H6" s="7">
         <v>670</v>
@@ -3538,13 +3496,13 @@
         <v>719002</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M6" s="7">
         <v>1165</v>
@@ -3553,13 +3511,13 @@
         <v>1243126</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3532,13 @@
         <v>302520</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H7" s="7">
         <v>433</v>
@@ -3589,13 +3547,13 @@
         <v>465009</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
         <v>711</v>
@@ -3604,13 +3562,13 @@
         <v>767529</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3583,13 @@
         <v>23448</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -3640,13 +3598,13 @@
         <v>35605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>55</v>
@@ -3655,13 +3613,13 @@
         <v>59053</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3634,13 @@
         <v>969545</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1244</v>
@@ -3691,33 +3649,33 @@
         <v>1334728</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2147</v>
       </c>
       <c r="N9" s="7">
-        <v>2304273</v>
+        <v>2304274</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3729,13 +3687,13 @@
         <v>30162</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3744,13 +3702,13 @@
         <v>27708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -3759,13 +3717,13 @@
         <v>57870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,7 +3738,7 @@
         <v>193642</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>236</v>
@@ -3795,13 +3753,13 @@
         <v>127177</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M11" s="7">
         <v>303</v>
@@ -3810,13 +3768,13 @@
         <v>320819</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3789,13 @@
         <v>1001871</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H12" s="7">
         <v>849</v>
@@ -3846,13 +3804,13 @@
         <v>906782</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M12" s="7">
         <v>1799</v>
@@ -3861,13 +3819,13 @@
         <v>1908653</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3840,13 @@
         <v>672704</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
         <v>595</v>
@@ -3897,13 +3855,13 @@
         <v>645929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
         <v>1229</v>
@@ -3912,13 +3870,13 @@
         <v>1318634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3891,13 @@
         <v>63557</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -3948,13 +3906,13 @@
         <v>46346</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -3963,13 +3921,13 @@
         <v>109902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3942,13 @@
         <v>1961935</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1632</v>
@@ -3999,13 +3957,13 @@
         <v>1753942</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3486</v>
@@ -4014,18 +3972,18 @@
         <v>3715877</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4037,13 +3995,13 @@
         <v>6245</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4052,13 +4010,13 @@
         <v>4855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4067,13 +4025,13 @@
         <v>11100</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4046,13 @@
         <v>25697</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -4103,13 +4061,13 @@
         <v>30416</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -4118,13 +4076,13 @@
         <v>56113</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4097,13 @@
         <v>251109</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H18" s="7">
         <v>201</v>
@@ -4154,13 +4112,13 @@
         <v>224935</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M18" s="7">
         <v>433</v>
@@ -4169,13 +4127,13 @@
         <v>476044</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4148,13 @@
         <v>191058</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H19" s="7">
         <v>160</v>
@@ -4205,13 +4163,13 @@
         <v>177413</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M19" s="7">
         <v>330</v>
@@ -4220,13 +4178,13 @@
         <v>368471</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4199,13 @@
         <v>7073</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -4256,13 +4214,13 @@
         <v>19014</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -4271,13 +4229,13 @@
         <v>26087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4250,13 @@
         <v>481181</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>410</v>
@@ -4307,13 +4265,13 @@
         <v>456633</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>848</v>
@@ -4322,13 +4280,13 @@
         <v>937814</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4303,13 @@
         <v>48358</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -4360,13 +4318,13 @@
         <v>46047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -4375,13 +4333,13 @@
         <v>94405</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>312</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,28 +4354,28 @@
         <v>326841</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H23" s="7">
         <v>242</v>
       </c>
       <c r="I23" s="7">
-        <v>259222</v>
+        <v>259221</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M23" s="7">
         <v>548</v>
@@ -4426,13 +4384,13 @@
         <v>586062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4405,13 @@
         <v>1777103</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>322</v>
+        <v>206</v>
       </c>
       <c r="H24" s="7">
         <v>1720</v>
@@ -4462,13 +4420,13 @@
         <v>1850720</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M24" s="7">
         <v>3397</v>
@@ -4477,13 +4435,13 @@
         <v>3627822</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4456,13 @@
         <v>1166282</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H25" s="7">
         <v>1188</v>
@@ -4513,13 +4471,13 @@
         <v>1288351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
         <v>2270</v>
@@ -4528,13 +4486,13 @@
         <v>2454633</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,10 +4510,10 @@
         <v>54</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H26" s="7">
         <v>92</v>
@@ -4564,13 +4522,13 @@
         <v>100964</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>340</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M26" s="7">
         <v>179</v>
@@ -4579,13 +4537,13 @@
         <v>195041</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>343</v>
+        <v>70</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,28 +4558,28 @@
         <v>3412661</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3286</v>
       </c>
       <c r="I27" s="7">
-        <v>3545304</v>
+        <v>3545303</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6481</v>
@@ -4630,18 +4588,18 @@
         <v>6957964</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4660,7 +4618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6591CA6-8DC6-42E2-8BAC-BAFF9B57DB9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0CF19E-1594-4FC9-9A7C-B9E8827D6DB1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4677,7 +4635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4784,13 +4742,13 @@
         <v>13152</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>339</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>340</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4799,13 +4757,13 @@
         <v>13524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -4814,13 +4772,13 @@
         <v>26676</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4793,13 @@
         <v>66860</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>351</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
         <v>58</v>
@@ -4850,13 +4808,13 @@
         <v>63546</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>354</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
         <v>122</v>
@@ -4865,13 +4823,13 @@
         <v>130405</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4844,13 @@
         <v>448835</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
         <v>533</v>
@@ -4901,13 +4859,13 @@
         <v>594325</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M6" s="7">
         <v>992</v>
@@ -4916,13 +4874,13 @@
         <v>1043160</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>209</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4895,13 @@
         <v>210350</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H7" s="7">
         <v>263</v>
@@ -4952,13 +4910,13 @@
         <v>295100</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M7" s="7">
         <v>473</v>
@@ -4967,13 +4925,13 @@
         <v>505450</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4946,13 @@
         <v>13270</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>374</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -5003,13 +4961,13 @@
         <v>24984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>376</v>
+        <v>64</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -5018,13 +4976,13 @@
         <v>38254</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +4997,13 @@
         <v>752466</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>889</v>
@@ -5054,13 +5012,13 @@
         <v>991479</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1649</v>
@@ -5069,18 +5027,18 @@
         <v>1743945</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5092,13 +5050,13 @@
         <v>33765</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>381</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -5107,13 +5065,13 @@
         <v>27185</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>383</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>384</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -5122,13 +5080,13 @@
         <v>60950</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5101,13 @@
         <v>214771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>190</v>
@@ -5158,28 +5116,28 @@
         <v>198056</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>390</v>
       </c>
       <c r="N11" s="7">
-        <v>412827</v>
+        <v>412828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5152,13 @@
         <v>1255656</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H12" s="7">
         <v>1152</v>
@@ -5209,28 +5167,28 @@
         <v>1191378</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M12" s="7">
         <v>2342</v>
       </c>
       <c r="N12" s="7">
-        <v>2447033</v>
+        <v>2447034</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5203,13 @@
         <v>544974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="H13" s="7">
         <v>506</v>
@@ -5260,13 +5218,13 @@
         <v>536781</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="M13" s="7">
         <v>1014</v>
@@ -5275,13 +5233,13 @@
         <v>1081755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5254,13 @@
         <v>21503</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>416</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -5311,28 +5269,28 @@
         <v>30984</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>114</v>
+        <v>407</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
       </c>
       <c r="N14" s="7">
-        <v>52486</v>
+        <v>52487</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5305,13 @@
         <v>2070668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1904</v>
@@ -5362,33 +5320,33 @@
         <v>1984385</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3851</v>
       </c>
       <c r="N15" s="7">
-        <v>4055052</v>
+        <v>4055053</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5400,13 +5358,13 @@
         <v>5894</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>410</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5415,13 +5373,13 @@
         <v>12667</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5430,13 +5388,13 @@
         <v>18561</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>421</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5409,13 @@
         <v>45598</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -5466,13 +5424,13 @@
         <v>43757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -5481,13 +5439,13 @@
         <v>89355</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>431</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5460,13 @@
         <v>342030</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>433</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="H18" s="7">
         <v>317</v>
@@ -5517,13 +5475,13 @@
         <v>326507</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="M18" s="7">
         <v>633</v>
@@ -5532,13 +5490,13 @@
         <v>668538</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5511,13 @@
         <v>146917</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>140</v>
+        <v>434</v>
       </c>
       <c r="H19" s="7">
         <v>147</v>
@@ -5568,13 +5526,13 @@
         <v>159296</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="M19" s="7">
         <v>281</v>
@@ -5583,13 +5541,13 @@
         <v>306214</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5562,13 @@
         <v>5359</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>451</v>
+        <v>64</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -5619,13 +5577,13 @@
         <v>6913</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>453</v>
+        <v>190</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>185</v>
+        <v>444</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -5634,13 +5592,13 @@
         <v>12272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>455</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5613,13 @@
         <v>545798</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>526</v>
@@ -5670,13 +5628,13 @@
         <v>549140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1026</v>
@@ -5685,13 +5643,13 @@
         <v>1094939</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5666,13 @@
         <v>52811</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>447</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>457</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -5723,13 +5681,13 @@
         <v>53376</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>262</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -5738,13 +5696,13 @@
         <v>106187</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>97</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5717,13 @@
         <v>327229</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H23" s="7">
         <v>291</v>
@@ -5774,13 +5732,13 @@
         <v>305359</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="M23" s="7">
         <v>596</v>
@@ -5789,13 +5747,13 @@
         <v>632588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5768,13 @@
         <v>2046520</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="H24" s="7">
         <v>2002</v>
@@ -5825,13 +5783,13 @@
         <v>2112210</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="M24" s="7">
         <v>3967</v>
@@ -5840,13 +5798,13 @@
         <v>4158731</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5819,13 @@
         <v>902241</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="H25" s="7">
         <v>916</v>
@@ -5876,13 +5834,13 @@
         <v>991178</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="M25" s="7">
         <v>1768</v>
@@ -5891,13 +5849,13 @@
         <v>1893419</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5870,13 @@
         <v>40131</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -5927,13 +5885,13 @@
         <v>62881</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>490</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>491</v>
+        <v>342</v>
       </c>
       <c r="M26" s="7">
         <v>94</v>
@@ -5942,13 +5900,13 @@
         <v>103012</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>492</v>
+        <v>221</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>493</v>
+        <v>63</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5921,13 @@
         <v>3368932</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3319</v>
@@ -5978,13 +5936,13 @@
         <v>3525004</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6526</v>
@@ -5993,18 +5951,18 @@
         <v>6893937</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C9A9686-92A0-46EE-9B7A-5A163F469156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93D53682-E607-4D25-8F6F-6A05E987A823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8AA5651-8FCB-4E2A-B366-FB40B9F05DD4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA485938-729B-4FD0-BA98-4A48A6010177}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="496">
   <si>
     <t>Población según la frecuencia de consumo de pescado en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>0,93%</t>
   </si>
   <si>
     <t>2,46%</t>
@@ -85,7 +85,7 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,66%</t>
+    <t>0,7%</t>
   </si>
   <si>
     <t>1,86%</t>
@@ -94,1393 +94,1438 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,93%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5563BB-171F-46A0-A510-DAF42F3EBA6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2D1EDA-49B7-48C6-AF1A-9C47FD365E01}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2049,16 +2094,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>82</v>
@@ -2067,13 +2112,13 @@
         <v>82943</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>82</v>
@@ -2082,13 +2127,13 @@
         <v>81547</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -2097,19 +2142,19 @@
         <v>164490</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>478</v>
@@ -2118,13 +2163,13 @@
         <v>479428</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>672</v>
@@ -2133,34 +2178,34 @@
         <v>684592</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>1150</v>
       </c>
       <c r="N6" s="7">
-        <v>1164020</v>
+        <v>1164019</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>424</v>
@@ -2169,13 +2214,13 @@
         <v>419342</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>486</v>
@@ -2184,34 +2229,34 @@
         <v>497336</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>910</v>
       </c>
       <c r="N7" s="7">
-        <v>916678</v>
+        <v>916677</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>36</v>
@@ -2220,13 +2265,13 @@
         <v>33214</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -2235,13 +2280,13 @@
         <v>36345</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>72</v>
@@ -2250,13 +2295,13 @@
         <v>69559</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2316,13 @@
         <v>1030855</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2286,33 +2331,33 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2328</v>
       </c>
       <c r="N9" s="7">
-        <v>2345968</v>
+        <v>2345967</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2324,13 +2369,13 @@
         <v>29764</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -2339,13 +2384,13 @@
         <v>33509</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -2354,19 +2399,19 @@
         <v>63273</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>144</v>
@@ -2375,13 +2420,13 @@
         <v>145362</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>125</v>
@@ -2390,7 +2435,7 @@
         <v>129678</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>74</v>
@@ -2417,7 +2462,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>854</v>
@@ -2468,13 +2513,13 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>594</v>
       </c>
       <c r="D13" s="7">
-        <v>607155</v>
+        <v>607156</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>88</v>
@@ -2513,13 +2558,13 @@
         <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>29</v>
@@ -2531,10 +2576,10 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -2543,13 +2588,13 @@
         <v>40168</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -2558,13 +2603,13 @@
         <v>71639</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,16 +2621,16 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1552</v>
@@ -2594,13 +2639,13 @@
         <v>1585619</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3201</v>
@@ -2609,18 +2654,18 @@
         <v>3279032</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2632,13 +2677,13 @@
         <v>6218</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -2647,13 +2692,13 @@
         <v>11517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2662,19 +2707,19 @@
         <v>17735</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>60</v>
@@ -2683,13 +2728,13 @@
         <v>57873</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -2698,13 +2743,13 @@
         <v>34395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -2713,19 +2758,19 @@
         <v>92268</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>258</v>
@@ -2734,13 +2779,13 @@
         <v>268899</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>268</v>
@@ -2749,13 +2794,13 @@
         <v>278873</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>526</v>
@@ -2764,19 +2809,19 @@
         <v>547772</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>193</v>
@@ -2785,13 +2830,13 @@
         <v>207334</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>135</v>
@@ -2800,13 +2845,13 @@
         <v>144468</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>328</v>
@@ -2815,19 +2860,19 @@
         <v>351801</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -2836,13 +2881,13 @@
         <v>11084</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2851,13 +2896,13 @@
         <v>7159</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -2866,13 +2911,13 @@
         <v>18243</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2932,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -2902,13 +2947,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -2917,13 +2962,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,13 +2985,13 @@
         <v>51911</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -2955,13 +3000,13 @@
         <v>60318</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -2970,19 +3015,19 @@
         <v>112229</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>286</v>
@@ -2991,13 +3036,13 @@
         <v>286178</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>239</v>
@@ -3006,13 +3051,13 @@
         <v>245620</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>525</v>
@@ -3021,19 +3066,19 @@
         <v>531798</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>1590</v>
@@ -3042,13 +3087,13 @@
         <v>1627987</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>1789</v>
@@ -3057,34 +3102,34 @@
         <v>1831585</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>3379</v>
       </c>
       <c r="N24" s="7">
-        <v>3459571</v>
+        <v>3459572</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>1211</v>
@@ -3093,13 +3138,13 @@
         <v>1233830</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>1127</v>
@@ -3108,34 +3153,34 @@
         <v>1155948</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>2338</v>
       </c>
       <c r="N25" s="7">
-        <v>2389778</v>
+        <v>2389779</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>75</v>
@@ -3144,13 +3189,13 @@
         <v>75769</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>82</v>
@@ -3159,13 +3204,13 @@
         <v>83673</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>157</v>
@@ -3174,13 +3219,13 @@
         <v>159442</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3240,13 @@
         <v>3275675</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3295</v>
@@ -3210,33 +3255,33 @@
         <v>3377144</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6508</v>
       </c>
       <c r="N27" s="7">
-        <v>6652818</v>
+        <v>6652819</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3255,7 +3300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAA9630-3EBC-420D-8582-E191BCF22A23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23A8C5A-D9F6-454A-B10F-EEE10143D64C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3272,7 +3317,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3379,13 +3424,13 @@
         <v>11952</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3394,13 +3439,13 @@
         <v>13484</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -3409,19 +3454,19 @@
         <v>25435</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>98</v>
@@ -3430,13 +3475,13 @@
         <v>107502</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -3445,34 +3490,34 @@
         <v>101628</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>192</v>
       </c>
       <c r="N5" s="7">
-        <v>209131</v>
+        <v>209130</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>495</v>
@@ -3481,13 +3526,13 @@
         <v>524123</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>670</v>
@@ -3496,13 +3541,13 @@
         <v>719002</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>1165</v>
@@ -3511,19 +3556,19 @@
         <v>1243126</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>278</v>
@@ -3532,13 +3577,13 @@
         <v>302520</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>433</v>
@@ -3547,13 +3592,13 @@
         <v>465009</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>711</v>
@@ -3562,19 +3607,19 @@
         <v>767529</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>21</v>
@@ -3583,13 +3628,13 @@
         <v>23448</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -3598,13 +3643,13 @@
         <v>35605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>55</v>
@@ -3613,13 +3658,13 @@
         <v>59053</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3679,13 @@
         <v>969545</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1244</v>
@@ -3649,33 +3694,33 @@
         <v>1334728</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2147</v>
       </c>
       <c r="N9" s="7">
-        <v>2304274</v>
+        <v>2304273</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3687,13 +3732,13 @@
         <v>30162</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3702,13 +3747,13 @@
         <v>27708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -3717,19 +3762,19 @@
         <v>57870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>183</v>
@@ -3738,13 +3783,13 @@
         <v>193642</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
@@ -3753,13 +3798,13 @@
         <v>127177</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>303</v>
@@ -3768,19 +3813,19 @@
         <v>320819</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>950</v>
@@ -3789,13 +3834,13 @@
         <v>1001871</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>849</v>
@@ -3804,13 +3849,13 @@
         <v>906782</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M12" s="7">
         <v>1799</v>
@@ -3819,19 +3864,19 @@
         <v>1908653</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>248</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>634</v>
@@ -3840,13 +3885,13 @@
         <v>672704</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>595</v>
@@ -3855,13 +3900,13 @@
         <v>645929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>1229</v>
@@ -3870,19 +3915,19 @@
         <v>1318634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>59</v>
@@ -3891,13 +3936,13 @@
         <v>63557</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -3906,13 +3951,13 @@
         <v>46346</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -3921,13 +3966,13 @@
         <v>109902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3987,13 @@
         <v>1961935</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1632</v>
@@ -3957,13 +4002,13 @@
         <v>1753942</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3486</v>
@@ -3972,18 +4017,18 @@
         <v>3715877</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3995,13 +4040,13 @@
         <v>6245</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4010,13 +4055,13 @@
         <v>4855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4025,19 +4070,19 @@
         <v>11100</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>25</v>
@@ -4046,13 +4091,13 @@
         <v>25697</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -4061,13 +4106,13 @@
         <v>30416</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -4076,19 +4121,19 @@
         <v>56113</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>232</v>
@@ -4097,13 +4142,13 @@
         <v>251109</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>285</v>
+        <v>84</v>
       </c>
       <c r="H18" s="7">
         <v>201</v>
@@ -4112,13 +4157,13 @@
         <v>224935</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>433</v>
@@ -4127,19 +4172,19 @@
         <v>476044</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>170</v>
@@ -4148,13 +4193,13 @@
         <v>191058</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H19" s="7">
         <v>160</v>
@@ -4163,13 +4208,13 @@
         <v>177413</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M19" s="7">
         <v>330</v>
@@ -4178,19 +4223,19 @@
         <v>368471</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -4199,13 +4244,13 @@
         <v>7073</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -4214,13 +4259,13 @@
         <v>19014</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -4229,13 +4274,13 @@
         <v>26087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4295,13 @@
         <v>481181</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>410</v>
@@ -4265,13 +4310,13 @@
         <v>456633</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>848</v>
@@ -4280,13 +4325,13 @@
         <v>937814</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4348,13 @@
         <v>48358</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>55</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -4318,13 +4363,13 @@
         <v>46047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -4333,19 +4378,19 @@
         <v>94405</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>306</v>
@@ -4354,28 +4399,28 @@
         <v>326841</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>240</v>
+        <v>318</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="H23" s="7">
         <v>242</v>
       </c>
       <c r="I23" s="7">
-        <v>259221</v>
+        <v>259222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>548</v>
@@ -4384,19 +4429,19 @@
         <v>586062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>200</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>1677</v>
@@ -4405,13 +4450,13 @@
         <v>1777103</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c r="H24" s="7">
         <v>1720</v>
@@ -4420,13 +4465,13 @@
         <v>1850720</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="M24" s="7">
         <v>3397</v>
@@ -4435,19 +4480,19 @@
         <v>3627822</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>1082</v>
@@ -4456,13 +4501,13 @@
         <v>1166282</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>1188</v>
@@ -4471,13 +4516,13 @@
         <v>1288351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>2270</v>
@@ -4486,19 +4531,19 @@
         <v>2454633</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>87</v>
@@ -4507,13 +4552,13 @@
         <v>94077</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>333</v>
+        <v>192</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="H26" s="7">
         <v>92</v>
@@ -4522,13 +4567,13 @@
         <v>100964</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>345</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>179</v>
@@ -4537,13 +4582,13 @@
         <v>195041</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>70</v>
+        <v>348</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,31 +4600,31 @@
         <v>3195</v>
       </c>
       <c r="D27" s="7">
-        <v>3412661</v>
+        <v>3412662</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3286</v>
       </c>
       <c r="I27" s="7">
-        <v>3545303</v>
+        <v>3545304</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6481</v>
@@ -4588,18 +4633,18 @@
         <v>6957964</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4618,7 +4663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0CF19E-1594-4FC9-9A7C-B9E8827D6DB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E411D0F-EDB0-42C9-96F5-983F32C22D44}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4635,7 +4680,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4742,13 +4787,13 @@
         <v>13152</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4757,13 +4802,13 @@
         <v>13524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -4772,19 +4817,19 @@
         <v>26676</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>64</v>
@@ -4793,13 +4838,13 @@
         <v>66860</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>194</v>
+        <v>360</v>
       </c>
       <c r="H5" s="7">
         <v>58</v>
@@ -4808,13 +4853,13 @@
         <v>63546</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>113</v>
+        <v>363</v>
       </c>
       <c r="M5" s="7">
         <v>122</v>
@@ -4823,19 +4868,19 @@
         <v>130405</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>459</v>
@@ -4844,13 +4889,13 @@
         <v>448835</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="H6" s="7">
         <v>533</v>
@@ -4859,13 +4904,13 @@
         <v>594325</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>992</v>
@@ -4874,19 +4919,19 @@
         <v>1043160</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>210</v>
@@ -4895,13 +4940,13 @@
         <v>210350</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="H7" s="7">
         <v>263</v>
@@ -4910,13 +4955,13 @@
         <v>295100</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="M7" s="7">
         <v>473</v>
@@ -4925,19 +4970,19 @@
         <v>505450</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>13</v>
@@ -4946,13 +4991,13 @@
         <v>13270</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -4961,13 +5006,13 @@
         <v>24984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>64</v>
+        <v>386</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -4976,13 +5021,13 @@
         <v>38254</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>389</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +5042,13 @@
         <v>752466</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>889</v>
@@ -5012,13 +5057,13 @@
         <v>991479</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1649</v>
@@ -5027,18 +5072,18 @@
         <v>1743945</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5050,13 +5095,13 @@
         <v>33765</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>391</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -5065,13 +5110,13 @@
         <v>27185</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>393</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>395</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -5080,19 +5125,19 @@
         <v>60950</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>377</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>200</v>
@@ -5101,13 +5146,13 @@
         <v>214771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="H11" s="7">
         <v>190</v>
@@ -5116,13 +5161,13 @@
         <v>198056</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="M11" s="7">
         <v>390</v>
@@ -5131,19 +5176,19 @@
         <v>412828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>1190</v>
@@ -5152,13 +5197,13 @@
         <v>1255656</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="H12" s="7">
         <v>1152</v>
@@ -5167,13 +5212,13 @@
         <v>1191378</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="M12" s="7">
         <v>2342</v>
@@ -5182,19 +5227,19 @@
         <v>2447034</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>508</v>
@@ -5203,13 +5248,13 @@
         <v>544974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="H13" s="7">
         <v>506</v>
@@ -5218,13 +5263,13 @@
         <v>536781</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="M13" s="7">
         <v>1014</v>
@@ -5233,19 +5278,19 @@
         <v>1081755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>18</v>
@@ -5254,13 +5299,13 @@
         <v>21503</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>311</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>423</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -5269,13 +5314,13 @@
         <v>30984</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -5284,13 +5329,13 @@
         <v>52487</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5350,13 @@
         <v>2070668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1904</v>
@@ -5320,13 +5365,13 @@
         <v>1984385</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3851</v>
@@ -5335,18 +5380,18 @@
         <v>4055053</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5358,13 +5403,13 @@
         <v>5894</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>410</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5373,13 +5418,13 @@
         <v>12667</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5388,19 +5433,19 @@
         <v>18561</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>41</v>
@@ -5409,13 +5454,13 @@
         <v>45598</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -5424,13 +5469,13 @@
         <v>43757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -5439,19 +5484,19 @@
         <v>89355</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>316</v>
@@ -5460,13 +5505,13 @@
         <v>342030</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>439</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="H18" s="7">
         <v>317</v>
@@ -5475,13 +5520,13 @@
         <v>326507</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="M18" s="7">
         <v>633</v>
@@ -5490,19 +5535,19 @@
         <v>668538</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>134</v>
@@ -5511,13 +5556,13 @@
         <v>146917</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="H19" s="7">
         <v>147</v>
@@ -5526,13 +5571,13 @@
         <v>159296</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="M19" s="7">
         <v>281</v>
@@ -5541,19 +5586,19 @@
         <v>306214</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -5562,13 +5607,13 @@
         <v>5359</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>441</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -5577,13 +5622,13 @@
         <v>6913</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>190</v>
+        <v>458</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>444</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -5592,13 +5637,13 @@
         <v>12272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>459</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5658,13 @@
         <v>545798</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>526</v>
@@ -5628,13 +5673,13 @@
         <v>549140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1026</v>
@@ -5643,13 +5688,13 @@
         <v>1094939</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5711,13 @@
         <v>52811</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>462</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -5681,13 +5726,13 @@
         <v>53376</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>464</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -5696,19 +5741,19 @@
         <v>106187</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>305</v>
@@ -5717,13 +5762,13 @@
         <v>327229</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="H23" s="7">
         <v>291</v>
@@ -5732,13 +5777,13 @@
         <v>305359</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>454</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="M23" s="7">
         <v>596</v>
@@ -5747,19 +5792,19 @@
         <v>632588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>1965</v>
@@ -5768,13 +5813,13 @@
         <v>2046520</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="H24" s="7">
         <v>2002</v>
@@ -5783,13 +5828,13 @@
         <v>2112210</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="M24" s="7">
         <v>3967</v>
@@ -5798,19 +5843,19 @@
         <v>4158731</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>852</v>
@@ -5819,13 +5864,13 @@
         <v>902241</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="H25" s="7">
         <v>916</v>
@@ -5834,34 +5879,34 @@
         <v>991178</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>471</v>
+        <v>217</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="M25" s="7">
         <v>1768</v>
       </c>
       <c r="N25" s="7">
-        <v>1893419</v>
+        <v>1893418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>35</v>
@@ -5870,13 +5915,13 @@
         <v>40131</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>63</v>
+        <v>461</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -5885,13 +5930,13 @@
         <v>62881</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>310</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M26" s="7">
         <v>94</v>
@@ -5900,13 +5945,13 @@
         <v>103012</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>221</v>
+        <v>495</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>480</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5966,13 @@
         <v>3368932</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3319</v>
@@ -5936,33 +5981,33 @@
         <v>3525004</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6526</v>
       </c>
       <c r="N27" s="7">
-        <v>6893937</v>
+        <v>6893936</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93D53682-E607-4D25-8F6F-6A05E987A823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A28F43C6-9D80-45AC-B565-478C2E8FFE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA485938-729B-4FD0-BA98-4A48A6010177}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{214E308C-386C-4732-9EC7-C577CDE6AEE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="495">
   <si>
     <t>Población según la frecuencia de consumo de pescado en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -88,1444 +88,1441 @@
     <t>0,7%</t>
   </si>
   <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>1,33%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
   </si>
   <si>
     <t>47,41%</t>
   </si>
   <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
     <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
 </sst>
 </file>
@@ -1937,7 +1934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2D1EDA-49B7-48C6-AF1A-9C47FD365E01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74CB635-DAC4-453E-AD6A-B223A4791555}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2094,16 +2091,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>82</v>
@@ -2112,13 +2109,13 @@
         <v>82943</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>82</v>
@@ -2127,13 +2124,13 @@
         <v>81547</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -2142,19 +2139,19 @@
         <v>164490</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>478</v>
@@ -2163,13 +2160,13 @@
         <v>479428</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>672</v>
@@ -2178,34 +2175,34 @@
         <v>684592</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>1150</v>
       </c>
       <c r="N6" s="7">
-        <v>1164019</v>
+        <v>1164020</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>424</v>
@@ -2214,13 +2211,13 @@
         <v>419342</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>486</v>
@@ -2229,34 +2226,34 @@
         <v>497336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>910</v>
       </c>
       <c r="N7" s="7">
-        <v>916677</v>
+        <v>916678</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>36</v>
@@ -2265,13 +2262,13 @@
         <v>33214</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -2280,10 +2277,10 @@
         <v>36345</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>55</v>
@@ -2343,7 +2340,7 @@
         <v>2328</v>
       </c>
       <c r="N9" s="7">
-        <v>2345967</v>
+        <v>2345968</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -2411,7 +2408,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>144</v>
@@ -2462,7 +2459,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>854</v>
@@ -2513,13 +2510,13 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>594</v>
       </c>
       <c r="D13" s="7">
-        <v>607156</v>
+        <v>607155</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>88</v>
@@ -2564,7 +2561,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>29</v>
@@ -2573,13 +2570,13 @@
         <v>31471</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -2588,13 +2585,13 @@
         <v>40168</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -2603,13 +2600,13 @@
         <v>71639</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,7 +2618,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -2665,7 +2662,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2677,13 +2674,13 @@
         <v>6218</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -2692,13 +2689,13 @@
         <v>11517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2707,19 +2704,19 @@
         <v>17735</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>60</v>
@@ -2728,13 +2725,13 @@
         <v>57873</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -2743,13 +2740,13 @@
         <v>34395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -2758,19 +2755,19 @@
         <v>92268</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>258</v>
@@ -2779,13 +2776,13 @@
         <v>268899</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>268</v>
@@ -2794,13 +2791,13 @@
         <v>278873</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>526</v>
@@ -2809,19 +2806,19 @@
         <v>547772</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>193</v>
@@ -2830,13 +2827,13 @@
         <v>207334</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>135</v>
@@ -2845,13 +2842,13 @@
         <v>144468</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>328</v>
@@ -2860,19 +2857,19 @@
         <v>351801</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -2881,13 +2878,13 @@
         <v>11084</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2896,7 +2893,7 @@
         <v>7159</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>145</v>
@@ -2917,7 +2914,7 @@
         <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,13 +2982,13 @@
         <v>51911</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -3000,13 +2997,13 @@
         <v>60318</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -3015,19 +3012,19 @@
         <v>112229</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>286</v>
@@ -3036,13 +3033,13 @@
         <v>286178</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>239</v>
@@ -3051,13 +3048,13 @@
         <v>245620</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>525</v>
@@ -3066,10 +3063,10 @@
         <v>531798</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>165</v>
@@ -3078,7 +3075,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>1590</v>
@@ -3129,7 +3126,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>1211</v>
@@ -3153,13 +3150,13 @@
         <v>1155948</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>2338</v>
@@ -3180,7 +3177,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>75</v>
@@ -3192,10 +3189,10 @@
         <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>82</v>
@@ -3204,13 +3201,13 @@
         <v>83673</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>157</v>
@@ -3219,13 +3216,13 @@
         <v>159442</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,7 +3278,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +3297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23A8C5A-D9F6-454A-B10F-EEE10143D64C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE12126D-1246-4EA5-9AA3-8C91FD293E78}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3317,7 +3314,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3424,10 +3421,10 @@
         <v>11952</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>192</v>
@@ -3460,13 +3457,13 @@
         <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>98</v>
@@ -3475,13 +3472,13 @@
         <v>107502</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -3490,13 +3487,13 @@
         <v>101628</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>192</v>
@@ -3505,10 +3502,10 @@
         <v>209130</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>206</v>
@@ -3517,7 +3514,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>495</v>
@@ -3568,7 +3565,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>278</v>
@@ -3619,7 +3616,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>21</v>
@@ -3628,13 +3625,13 @@
         <v>23448</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -3643,7 +3640,7 @@
         <v>35605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>227</v>
@@ -3735,7 +3732,7 @@
         <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>233</v>
@@ -3747,13 +3744,13 @@
         <v>27708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -3768,13 +3765,13 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>183</v>
@@ -3783,13 +3780,13 @@
         <v>193642</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
@@ -3798,13 +3795,13 @@
         <v>127177</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>303</v>
@@ -3813,19 +3810,19 @@
         <v>320819</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>950</v>
@@ -3834,13 +3831,13 @@
         <v>1001871</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>849</v>
@@ -3849,13 +3846,13 @@
         <v>906782</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M12" s="7">
         <v>1799</v>
@@ -3864,19 +3861,19 @@
         <v>1908653</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>634</v>
@@ -3885,13 +3882,13 @@
         <v>672704</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>595</v>
@@ -3900,13 +3897,13 @@
         <v>645929</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>1229</v>
@@ -3915,19 +3912,19 @@
         <v>1318634</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>59</v>
@@ -3936,13 +3933,13 @@
         <v>63557</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -3951,13 +3948,13 @@
         <v>46346</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -3969,7 +3966,7 @@
         <v>267</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>268</v>
@@ -4028,7 +4025,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4061,7 +4058,7 @@
         <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4070,19 +4067,19 @@
         <v>11100</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>25</v>
@@ -4091,13 +4088,13 @@
         <v>25697</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -4106,13 +4103,13 @@
         <v>30416</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -4121,19 +4118,19 @@
         <v>56113</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>232</v>
@@ -4142,13 +4139,13 @@
         <v>251109</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>286</v>
       </c>
       <c r="H18" s="7">
         <v>201</v>
@@ -4157,13 +4154,13 @@
         <v>224935</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>433</v>
@@ -4172,19 +4169,19 @@
         <v>476044</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>170</v>
@@ -4193,13 +4190,13 @@
         <v>191058</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H19" s="7">
         <v>160</v>
@@ -4208,13 +4205,13 @@
         <v>177413</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M19" s="7">
         <v>330</v>
@@ -4223,19 +4220,19 @@
         <v>368471</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -4247,10 +4244,10 @@
         <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -4259,13 +4256,13 @@
         <v>19014</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -4274,13 +4271,13 @@
         <v>26087</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4345,13 @@
         <v>48358</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>19</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -4366,10 +4363,10 @@
         <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -4378,19 +4375,19 @@
         <v>94405</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>306</v>
@@ -4399,13 +4396,13 @@
         <v>326841</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H23" s="7">
         <v>242</v>
@@ -4414,13 +4411,13 @@
         <v>259222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M23" s="7">
         <v>548</v>
@@ -4429,19 +4426,19 @@
         <v>586062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>325</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>1677</v>
@@ -4450,13 +4447,13 @@
         <v>1777103</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H24" s="7">
         <v>1720</v>
@@ -4465,13 +4462,13 @@
         <v>1850720</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M24" s="7">
         <v>3397</v>
@@ -4480,19 +4477,19 @@
         <v>3627822</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>1082</v>
@@ -4501,13 +4498,13 @@
         <v>1166282</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H25" s="7">
         <v>1188</v>
@@ -4516,13 +4513,13 @@
         <v>1288351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M25" s="7">
         <v>2270</v>
@@ -4531,19 +4528,19 @@
         <v>2454633</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>87</v>
@@ -4552,13 +4549,13 @@
         <v>94077</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>192</v>
+        <v>338</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H26" s="7">
         <v>92</v>
@@ -4567,13 +4564,13 @@
         <v>100964</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M26" s="7">
         <v>179</v>
@@ -4582,13 +4579,13 @@
         <v>195041</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,7 +4597,7 @@
         <v>3195</v>
       </c>
       <c r="D27" s="7">
-        <v>3412662</v>
+        <v>3412661</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -4644,7 +4641,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4663,7 +4660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E411D0F-EDB0-42C9-96F5-983F32C22D44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB05DE4-3DA5-4197-A07F-6DD927744604}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4680,7 +4677,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4787,13 +4784,13 @@
         <v>13152</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>351</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>352</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>345</v>
+        <v>66</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4802,13 +4799,13 @@
         <v>13524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>354</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -4817,19 +4814,19 @@
         <v>26676</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>64</v>
@@ -4838,13 +4835,13 @@
         <v>66860</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>58</v>
@@ -4853,13 +4850,13 @@
         <v>63546</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>122</v>
@@ -4868,19 +4865,19 @@
         <v>130405</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>366</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>459</v>
@@ -4889,13 +4886,13 @@
         <v>448835</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="H6" s="7">
         <v>533</v>
@@ -4904,13 +4901,13 @@
         <v>594325</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="M6" s="7">
         <v>992</v>
@@ -4919,19 +4916,19 @@
         <v>1043160</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>374</v>
+        <v>209</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>210</v>
@@ -4940,13 +4937,13 @@
         <v>210350</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="H7" s="7">
         <v>263</v>
@@ -4955,13 +4952,13 @@
         <v>295100</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="M7" s="7">
         <v>473</v>
@@ -4970,19 +4967,19 @@
         <v>505450</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>13</v>
@@ -4994,10 +4991,10 @@
         <v>61</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>374</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -5006,13 +5003,13 @@
         <v>24984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -5021,13 +5018,13 @@
         <v>38254</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>389</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>390</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5092,13 @@
         <v>33765</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -5110,13 +5107,13 @@
         <v>27185</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>394</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -5125,19 +5122,19 @@
         <v>60950</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>200</v>
@@ -5146,13 +5143,13 @@
         <v>214771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="H11" s="7">
         <v>190</v>
@@ -5161,34 +5158,34 @@
         <v>198056</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="M11" s="7">
         <v>390</v>
       </c>
       <c r="N11" s="7">
-        <v>412828</v>
+        <v>412827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>1190</v>
@@ -5197,13 +5194,13 @@
         <v>1255656</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="H12" s="7">
         <v>1152</v>
@@ -5212,34 +5209,34 @@
         <v>1191378</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="M12" s="7">
         <v>2342</v>
       </c>
       <c r="N12" s="7">
-        <v>2447034</v>
+        <v>2447033</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>508</v>
@@ -5248,13 +5245,13 @@
         <v>544974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H13" s="7">
         <v>506</v>
@@ -5263,13 +5260,13 @@
         <v>536781</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="M13" s="7">
         <v>1014</v>
@@ -5278,19 +5275,19 @@
         <v>1081755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>18</v>
@@ -5299,13 +5296,13 @@
         <v>21503</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>311</v>
+        <v>414</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>415</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -5317,25 +5314,25 @@
         <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
       </c>
       <c r="N14" s="7">
-        <v>52487</v>
+        <v>52486</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,7 +5374,7 @@
         <v>3851</v>
       </c>
       <c r="N15" s="7">
-        <v>4055053</v>
+        <v>4055052</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5406,10 +5403,10 @@
         <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>426</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5421,10 +5418,10 @@
         <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5433,19 +5430,19 @@
         <v>18561</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>41</v>
@@ -5454,13 +5451,13 @@
         <v>45598</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -5469,13 +5466,13 @@
         <v>43757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -5484,19 +5481,19 @@
         <v>89355</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>429</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>316</v>
@@ -5505,13 +5502,13 @@
         <v>342030</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H18" s="7">
         <v>317</v>
@@ -5520,13 +5517,13 @@
         <v>326507</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M18" s="7">
         <v>633</v>
@@ -5535,19 +5532,19 @@
         <v>668538</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>134</v>
@@ -5556,13 +5553,13 @@
         <v>146917</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>449</v>
+        <v>140</v>
       </c>
       <c r="H19" s="7">
         <v>147</v>
@@ -5571,13 +5568,13 @@
         <v>159296</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="M19" s="7">
         <v>281</v>
@@ -5586,19 +5583,19 @@
         <v>306214</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -5607,13 +5604,13 @@
         <v>5359</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>449</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>346</v>
+        <v>451</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -5622,13 +5619,13 @@
         <v>6913</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -5637,13 +5634,13 @@
         <v>12272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>459</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>194</v>
+        <v>454</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5708,13 @@
         <v>52811</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>461</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -5726,13 +5723,13 @@
         <v>53376</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>464</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -5744,16 +5741,16 @@
         <v>232</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>466</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>305</v>
@@ -5762,13 +5759,13 @@
         <v>327229</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>467</v>
+        <v>75</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H23" s="7">
         <v>291</v>
@@ -5777,13 +5774,13 @@
         <v>305359</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>463</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M23" s="7">
         <v>596</v>
@@ -5792,19 +5789,19 @@
         <v>632588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>1965</v>
@@ -5813,13 +5810,13 @@
         <v>2046520</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H24" s="7">
         <v>2002</v>
@@ -5828,13 +5825,13 @@
         <v>2112210</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M24" s="7">
         <v>3967</v>
@@ -5843,19 +5840,19 @@
         <v>4158731</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>852</v>
@@ -5864,13 +5861,13 @@
         <v>902241</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H25" s="7">
         <v>916</v>
@@ -5879,34 +5876,34 @@
         <v>991178</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>217</v>
+        <v>481</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M25" s="7">
         <v>1768</v>
       </c>
       <c r="N25" s="7">
-        <v>1893418</v>
+        <v>1893419</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>35</v>
@@ -5915,13 +5912,13 @@
         <v>40131</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>461</v>
+        <v>62</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -5930,13 +5927,13 @@
         <v>62881</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>310</v>
+        <v>490</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>491</v>
       </c>
       <c r="M26" s="7">
         <v>94</v>
@@ -5945,13 +5942,13 @@
         <v>103012</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>109</v>
+        <v>493</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>266</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,7 +5990,7 @@
         <v>6526</v>
       </c>
       <c r="N27" s="7">
-        <v>6893936</v>
+        <v>6893937</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -6007,7 +6004,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A28F43C6-9D80-45AC-B565-478C2E8FFE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F27569-3D28-4A01-A9DE-9835EBDCD939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{214E308C-386C-4732-9EC7-C577CDE6AEE8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{720FD949-3090-4641-820F-E7DA3DD2F4BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1934,7 +1934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74CB635-DAC4-453E-AD6A-B223A4791555}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87316987-135C-45F1-87BD-9928C1AA1E28}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2187,7 +2187,7 @@
         <v>1150</v>
       </c>
       <c r="N6" s="7">
-        <v>1164020</v>
+        <v>1164019</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2238,7 +2238,7 @@
         <v>910</v>
       </c>
       <c r="N7" s="7">
-        <v>916678</v>
+        <v>916677</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2340,7 +2340,7 @@
         <v>2328</v>
       </c>
       <c r="N9" s="7">
-        <v>2345968</v>
+        <v>2345967</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -2516,7 +2516,7 @@
         <v>594</v>
       </c>
       <c r="D13" s="7">
-        <v>607155</v>
+        <v>607156</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>88</v>
@@ -2618,7 +2618,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -3096,7 +3096,7 @@
         <v>1789</v>
       </c>
       <c r="I24" s="7">
-        <v>1831585</v>
+        <v>1831584</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>169</v>
@@ -3249,7 +3249,7 @@
         <v>3295</v>
       </c>
       <c r="I27" s="7">
-        <v>3377144</v>
+        <v>3377143</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -3297,7 +3297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE12126D-1246-4EA5-9AA3-8C91FD293E78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF5A6CB-975A-4EA7-85AC-64E7266D9CCE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4408,7 +4408,7 @@
         <v>242</v>
       </c>
       <c r="I23" s="7">
-        <v>259222</v>
+        <v>259221</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>315</v>
@@ -4474,7 +4474,7 @@
         <v>3397</v>
       </c>
       <c r="N24" s="7">
-        <v>3627822</v>
+        <v>3627823</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>326</v>
@@ -4612,7 +4612,7 @@
         <v>3286</v>
       </c>
       <c r="I27" s="7">
-        <v>3545304</v>
+        <v>3545303</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -4627,7 +4627,7 @@
         <v>6481</v>
       </c>
       <c r="N27" s="7">
-        <v>6957964</v>
+        <v>6957965</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -4660,7 +4660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB05DE4-3DA5-4197-A07F-6DD927744604}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2C50FD-A06D-4051-8E6A-147A93DFDE2C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5170,7 +5170,7 @@
         <v>390</v>
       </c>
       <c r="N11" s="7">
-        <v>412827</v>
+        <v>412828</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>393</v>
@@ -5221,7 +5221,7 @@
         <v>2342</v>
       </c>
       <c r="N12" s="7">
-        <v>2447033</v>
+        <v>2447034</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>402</v>
@@ -5323,7 +5323,7 @@
         <v>47</v>
       </c>
       <c r="N14" s="7">
-        <v>52486</v>
+        <v>52487</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>417</v>
@@ -5374,7 +5374,7 @@
         <v>3851</v>
       </c>
       <c r="N15" s="7">
-        <v>4055052</v>
+        <v>4055053</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
